--- a/biology/Microbiologie/Opalinidae/Opalinidae.xlsx
+++ b/biology/Microbiologie/Opalinidae/Opalinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Opalines
 Les Opalinidae (auparavant embranchement des Opalinidea) sont une famille de chromistes de l'embranchement des Bigyra, de la classe des Opalinea et de l’ordre des Opalinida.
@@ -516,11 +528,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Opalina, dérivé du latin opalis, opale (par allusion à l'opale, le minéral, dont le nom est lui-même issu du mot sanskrit upala signifiant « pierre précieuse »), et du suffixe latin -ina, « de la nature de », en référence aux couleurs vives (comme de l'opale) que revêtent les espèces de cet organisme.
 En effet, en 1884, Purkinje &amp; Valentin font la description suivante : 
-« Notre Opalina ranarum est sans aucun doute synonyme de Bursariae  ranarum Ehrbg., à laquelle nous n'avons pas hésité à ajouter un nouveau nom, car elle ne présente pas de corps creux, ce qui est considéré comme un signe caractéristique du genre Bursariae. En raison de la splendeur et de la variété des couleurs de surface qui apparaissent en plein soleil, nous l'avons appelée Opalina[1]. »
+« Notre Opalina ranarum est sans aucun doute synonyme de Bursariae  ranarum Ehrbg., à laquelle nous n'avons pas hésité à ajouter un nouveau nom, car elle ne présente pas de corps creux, ce qui est considéré comme un signe caractéristique du genre Bursariae. En raison de la splendeur et de la variété des couleurs de surface qui apparaissent en plein soleil, nous l'avons appelée Opalina. »
 </t>
         </is>
       </c>
@@ -549,16 +563,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre type Opalina sont des hétérocontes parasites que l'on trouve dans les intestins des grenouilles et des crapauds. Ils sont dépourvus de bouche et de vacuoles contractiles ; couverts de cils flagelliformes presque égaux.
 Toutes les espèces sont des endosymbiotes obligatoires chez les vertébrés à sang froid, très probablement commensaux plutôt que parasitaires ; en effet ils sont saprobiontes (consommant de la matière morte), ce qui suggère ce rôle commensal.
 Le corps est ovale, aplati en forme de feuille et recouvert d'une fine pellicule. La nutrition se fait par pinocytose.
 Plusieurs noyaux, tous semblables, de petite taille et sphériques, sont répartis uniformément dans l'endoplasme.
 L'organisme se reproduit par fission binaire longitudinale et transversale, ou par plasmotomie dans laquelle la division cellulaire est répétée encore et encore sans division des noyaux.
-Les cellules filles s'enkystent avant de passer dans les matières fécales de leur hôte[2].
+Les cellules filles s'enkystent avant de passer dans les matières fécales de leur hôte.
 	Quelques Opalinidae
-			Protoopalina pingi[3] du rectum des batraciens Hylarana guentheri et Pelophylax nigromaculatus.
+			Protoopalina pingi du rectum des batraciens Hylarana guentheri et Pelophylax nigromaculatus.
 			Cepedea longa.
 			Cepedea longa en microscopie électronique.
 			Protozelleriella devilliersi.
@@ -592,16 +608,18 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'IRMNG  (17 septembre 2022)[4]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'IRMNG  (17 septembre 2022)
 Bezzenbergeria Earl, 1973
 Cepedea Metcalf, 1920
 Opalina Purkinje &amp; Valentin, 1835 - genre type
 Protoopalina Metcalf, 1918
 Protozelleriella Delvinquier, Markus &amp; Passmore, 1991
 Zelleriella Metcalf, 1920, nom. nud.
-Selon GBIF       (17 septembre 2022)[5] :
+Selon GBIF       (17 septembre 2022) :
 Cepedea Metcalf, 1920
 Hegneriella Earl, 1971
 Opalina Purkinye &amp; Valentin, 1835
@@ -656,9 +674,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Opalinidae Claus, 1874[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Opalinidae Claus, 1874.
 </t>
         </is>
       </c>
@@ -687,9 +707,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>(la) Purkinje, J.E. &amp; Valentin, G. 1835. De phaenomeno generali et fundamentali motus vibratorii continui in membranis cum externis tum internis animalium plurimorum et superiorum et inferiorum ordinum obvii : commentatio physiologica. Wratislaviae : Sumptibus Aug. Schulz et Socii. [48][1],[7].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(la) Purkinje, J.E. &amp; Valentin, G. 1835. De phaenomeno generali et fundamentali motus vibratorii continui in membranis cum externis tum internis animalium plurimorum et superiorum et inferiorum ordinum obvii : commentatio physiologica. Wratislaviae : Sumptibus Aug. Schulz et Socii. ,.</t>
         </is>
       </c>
     </row>
